--- a/CSV/Best_beers_by_state.xlsx
+++ b/CSV/Best_beers_by_state.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milli\Desktop\Boot Camp\Homework\ETL_Beer\CSV\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D48931AC-3988-4A9C-A65D-44C7FA6DDB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -574,26 +565,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
@@ -603,7 +594,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -630,364 +621,62 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="19.14"/>
+    <col customWidth="1" min="2" max="2" width="51.29"/>
+    <col customWidth="1" min="3" max="3" width="40.57"/>
+    <col customWidth="1" min="4" max="4" width="42.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1053,7 +742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1081,7 +770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1095,7 +784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1109,7 +798,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1123,7 +812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -1137,7 +826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1149,7 +838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -1163,7 +852,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -1177,7 +866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -1191,7 +880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
@@ -1205,7 +894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
@@ -1215,7 +904,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -1229,7 +918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
@@ -1241,7 +930,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
@@ -1255,7 +944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -1269,7 +958,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
@@ -1283,7 +972,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -1297,7 +986,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -1311,7 +1000,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" s="5" t="s">
         <v>90</v>
       </c>
@@ -1325,7 +1014,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
@@ -1339,7 +1028,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" s="5" t="s">
         <v>98</v>
       </c>
@@ -1351,7 +1040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>101</v>
       </c>
@@ -1365,7 +1054,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" s="5" t="s">
         <v>105</v>
       </c>
@@ -1379,7 +1068,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>109</v>
       </c>
@@ -1393,7 +1082,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" s="5" t="s">
         <v>113</v>
       </c>
@@ -1405,7 +1094,7 @@
       </c>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>116</v>
       </c>
@@ -1419,7 +1108,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" s="5" t="s">
         <v>120</v>
       </c>
@@ -1433,7 +1122,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>124</v>
       </c>
@@ -1445,7 +1134,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" s="5" t="s">
         <v>127</v>
       </c>
@@ -1459,7 +1148,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
@@ -1471,7 +1160,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" s="5" t="s">
         <v>134</v>
       </c>
@@ -1485,7 +1174,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>138</v>
       </c>
@@ -1499,7 +1188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" s="5" t="s">
         <v>142</v>
       </c>
@@ -1509,7 +1198,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" s="2" t="s">
         <v>144</v>
       </c>
@@ -1523,7 +1212,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" s="5" t="s">
         <v>148</v>
       </c>
@@ -1537,7 +1226,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" s="2" t="s">
         <v>152</v>
       </c>
@@ -1551,7 +1240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" s="5" t="s">
         <v>156</v>
       </c>
@@ -1565,7 +1254,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" s="2" t="s">
         <v>160</v>
       </c>
@@ -1579,7 +1268,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" s="5" t="s">
         <v>164</v>
       </c>
@@ -1593,7 +1282,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" s="2" t="s">
         <v>168</v>
       </c>
@@ -1607,7 +1296,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" s="5" t="s">
         <v>172</v>
       </c>
@@ -1621,7 +1310,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" s="2" t="s">
         <v>176</v>
       </c>
@@ -1635,7 +1324,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" s="5" t="s">
         <v>180</v>
       </c>
@@ -1648,6 +1337,6 @@
       <c r="D49" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>